--- a/output_sum.xlsx
+++ b/output_sum.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146461409.1123437</v>
+        <v>145943436.4992725</v>
       </c>
       <c r="C2" t="n">
-        <v>146461409.1123437</v>
+        <v>145943436.4992725</v>
       </c>
       <c r="D2" t="n">
-        <v>125355783.2398437</v>
+        <v>124920970.7492725</v>
       </c>
       <c r="E2" t="n">
-        <v>125355783.2398437</v>
+        <v>124920970.7492725</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305098369.2227654</v>
+        <v>369978597.7595823</v>
       </c>
       <c r="C3" t="n">
-        <v>353353735.1362607</v>
+        <v>431038028.5208098</v>
       </c>
       <c r="D3" t="n">
-        <v>195171993.0848744</v>
+        <v>237714693.2885812</v>
       </c>
       <c r="E3" t="n">
-        <v>226451298.7168533</v>
+        <v>277405907.3105173</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158636960.1104217</v>
+        <v>224035161.2603098</v>
       </c>
       <c r="C4" t="n">
-        <v>206892326.023917</v>
+        <v>285094592.0215373</v>
       </c>
       <c r="D4" t="n">
-        <v>69816209.84503068</v>
+        <v>112793722.5393087</v>
       </c>
       <c r="E4" t="n">
-        <v>101095515.4770096</v>
+        <v>152484936.5612448</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.083131461535637</v>
+        <v>2.535082129311286</v>
       </c>
       <c r="C5" t="n">
-        <v>2.412606414739733</v>
+        <v>2.953459496775372</v>
       </c>
       <c r="D5" t="n">
-        <v>1.556944466706024</v>
+        <v>1.902920637446019</v>
       </c>
       <c r="E5" t="n">
-        <v>1.806468699442316</v>
+        <v>2.220651229706625</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3427126388767183</v>
+        <v>0.3486230975639195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3490223139977946</v>
+        <v>0.3550432437000339</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2787363305623947</v>
+        <v>0.284272374801404</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2846899413453763</v>
+        <v>0.2903445995875837</v>
       </c>
     </row>
     <row r="7">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05589642751564197</v>
+        <v>0.05655486024649493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05611208235290199</v>
+        <v>0.05677305211602514</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03831637172123106</v>
+        <v>0.03876813046414885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03843541469280073</v>
+        <v>0.03888857389519462</v>
       </c>
     </row>
   </sheetData>

--- a/output_sum.xlsx
+++ b/output_sum.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>369978597.7595823</v>
+        <v>369347257.2430271</v>
       </c>
       <c r="C3" t="n">
-        <v>431038028.5208098</v>
+        <v>430324266.3587165</v>
       </c>
       <c r="D3" t="n">
-        <v>237714693.2885812</v>
+        <v>236784432.3641876</v>
       </c>
       <c r="E3" t="n">
-        <v>277405907.3105173</v>
+        <v>276350011.2194867</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224035161.2603098</v>
+        <v>223403820.7437546</v>
       </c>
       <c r="C4" t="n">
-        <v>285094592.0215373</v>
+        <v>284380829.859444</v>
       </c>
       <c r="D4" t="n">
-        <v>112793722.5393087</v>
+        <v>111863461.6149151</v>
       </c>
       <c r="E4" t="n">
-        <v>152484936.5612448</v>
+        <v>151429040.4702141</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.535082129311286</v>
+        <v>2.530756203242262</v>
       </c>
       <c r="C5" t="n">
-        <v>2.953459496775372</v>
+        <v>2.94856882009121</v>
       </c>
       <c r="D5" t="n">
-        <v>1.902920637446019</v>
+        <v>1.895473841933513</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220651229706625</v>
+        <v>2.21219871701242</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3486230975639195</v>
+        <v>0.2643930183742391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3550432437000339</v>
+        <v>0.2704123029962009</v>
       </c>
       <c r="D6" t="n">
-        <v>0.284272374801404</v>
+        <v>0.2167643656898612</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2903445995875837</v>
+        <v>0.2225043574745869</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C7" t="n">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D7" t="n">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="E7" t="n">
-        <v>2035</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05655486024649493</v>
+        <v>0.05641012034621917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05677305211602514</v>
+        <v>0.05663008454105887</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03876813046414885</v>
+        <v>0.03851885406022838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03888857389519462</v>
+        <v>0.03864136904033719</v>
       </c>
     </row>
   </sheetData>
